--- a/Al Sweigart/excel/multiple5.xlsx
+++ b/Al Sweigart/excel/multiple5.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,10 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -357,7 +353,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1">
       <c r="B1" t="n">
         <v>1</v>
       </c>
@@ -374,7 +370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -394,7 +390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -414,63 +410,65 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="n">
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B7" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D7" t="n">
         <v>9</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E7" t="n">
         <v>12</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F7" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="n">
+    <row r="8">
+      <c r="A8" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B8" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D8" t="n">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E8" t="n">
         <v>16</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F8" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="n">
+    <row r="9">
+      <c r="A9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B9" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D9" t="n">
         <v>15</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E9" t="n">
         <v>20</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F9" t="n">
         <v>25</v>
       </c>
     </row>
